--- a/VerveStacks_DEU/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AD02B25-C00D-4C4C-875D-8B30F6F0C20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA4871D1-4A5E-4628-88ED-BC838D871D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6984" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6995" uniqueCount="88">
   <si>
     <t>Delayed transition</t>
   </si>
@@ -291,6 +291,18 @@
   <si>
     <t>DEU</t>
   </si>
+  <si>
+    <t>~tfm_ins-ts</t>
+  </si>
+  <si>
+    <t>cap_bnd</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +312,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,26 +390,33 @@
     </font>
     <font>
       <i/>
-      <sz val="9"/>
+      <sz val="7"/>
       <color rgb="FF969696"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +452,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +553,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,6 +573,14 @@
     <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -2460,6 +2493,56 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D247AF3-9C2A-48F7-9FA1-F343635957B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5073650" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2780,7 +2863,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA34"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
@@ -2795,26 +2878,39 @@
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="5.265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B3" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$B$7:$C$14,2,FALSE)</f>
         <v>Current Policies</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1</v>
       </c>
@@ -2822,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2</v>
       </c>
@@ -2833,7 +2929,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>3</v>
       </c>
@@ -2844,7 +2940,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10">
         <v>4</v>
       </c>
@@ -2859,7 +2955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>5</v>
       </c>
@@ -2867,7 +2963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>6</v>
       </c>
@@ -2903,7 +2999,7 @@
         <v>682.33268039556629</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>7</v>
       </c>
@@ -2911,12 +3007,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
       <c r="Q14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G15" s="7">
         <v>2020</v>
       </c>
@@ -2972,7 +3068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G16" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q16,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
         <v>9.8299999999999998E-2</v>
@@ -3377,7 +3473,7 @@
       </c>
     </row>
     <row r="27" spans="2:26" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="7:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G34" s="11">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
         <v>91.362100000000012</v>
@@ -3406,8 +3502,74 @@
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!M$15)</f>
         <v>46.334200000000003</v>
       </c>
+      <c r="Q34" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q35" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" s="20">
+        <v>2024</v>
+      </c>
+      <c r="S35" s="20">
+        <v>2030</v>
+      </c>
+      <c r="T35" s="20">
+        <v>2040</v>
+      </c>
+      <c r="U35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V35" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="7:22" x14ac:dyDescent="0.45">
+      <c r="Q36" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="R36" s="22">
+        <v>15.265000000000001</v>
+      </c>
+      <c r="S36" s="22">
+        <v>26.114999999999998</v>
+      </c>
+      <c r="T36" s="22">
+        <v>28.215</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V36" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="7:22" x14ac:dyDescent="0.45">
+      <c r="Q37" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="R37" s="24">
+        <v>12.7</v>
+      </c>
+      <c r="S37" s="24">
+        <v>15.3</v>
+      </c>
+      <c r="T37" s="24">
+        <v>15.6</v>
+      </c>
+      <c r="U37" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="V37" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3427,7 +3589,7 @@
     <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="13"/>
     </row>
-    <row r="2" spans="1:4" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="14" t="s">
         <v>55</v>
       </c>
@@ -3441,7 +3603,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>32</v>
       </c>
@@ -3455,7 +3617,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="17" t="s">
         <v>34</v>
       </c>
@@ -3469,7 +3631,7 @@
         <v>296.68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>36</v>
       </c>
@@ -3483,7 +3645,7 @@
         <v>49.2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>56</v>
       </c>
@@ -3497,7 +3659,7 @@
         <v>21.73</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="15" t="s">
         <v>57</v>
       </c>
@@ -3511,7 +3673,7 @@
         <v>169.61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
@@ -3525,7 +3687,7 @@
         <v>18.05</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>32</v>
       </c>
@@ -3539,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="17" t="s">
         <v>58</v>
       </c>
@@ -3553,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>59</v>
       </c>
@@ -3567,7 +3729,7 @@
         <v>9.35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="17" t="s">
         <v>32</v>
       </c>
@@ -3581,7 +3743,7 @@
         <v>4.59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>34</v>
       </c>
@@ -3595,7 +3757,7 @@
         <v>293.74</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="17" t="s">
         <v>36</v>
       </c>
@@ -3609,7 +3771,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>56</v>
       </c>
@@ -3623,7 +3785,7 @@
         <v>22.73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="17" t="s">
         <v>57</v>
       </c>
@@ -3637,7 +3799,7 @@
         <v>171.3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>38</v>
       </c>
@@ -3651,7 +3813,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="17" t="s">
         <v>32</v>
       </c>
@@ -3665,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>58</v>
       </c>
@@ -3679,7 +3841,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="17" t="s">
         <v>59</v>
       </c>
@@ -3693,7 +3855,7 @@
         <v>10.46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
         <v>32</v>
       </c>
@@ -3707,7 +3869,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="17" t="s">
         <v>34</v>
       </c>
@@ -3721,7 +3883,7 @@
         <v>299.60000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>36</v>
       </c>
@@ -3735,7 +3897,7 @@
         <v>56.3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="17" t="s">
         <v>56</v>
       </c>
@@ -3749,7 +3911,7 @@
         <v>23.12</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="15" t="s">
         <v>57</v>
       </c>
@@ -3763,7 +3925,7 @@
         <v>164.84</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="17" t="s">
         <v>38</v>
       </c>
@@ -3777,7 +3939,7 @@
         <v>18.53</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
         <v>32</v>
       </c>
@@ -3791,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="17" t="s">
         <v>58</v>
       </c>
@@ -3805,7 +3967,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="15" t="s">
         <v>59</v>
       </c>
@@ -3819,7 +3981,7 @@
         <v>15.86</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="17" t="s">
         <v>32</v>
       </c>
@@ -3833,7 +3995,7 @@
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="15" t="s">
         <v>34</v>
       </c>
@@ -3847,7 +4009,7 @@
         <v>304.63</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="17" t="s">
         <v>36</v>
       </c>
@@ -3861,7 +4023,7 @@
         <v>62.59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
         <v>56</v>
       </c>
@@ -3875,7 +4037,7 @@
         <v>18.32</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="17" t="s">
         <v>57</v>
       </c>
@@ -3889,7 +4051,7 @@
         <v>165.06</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
         <v>38</v>
       </c>
@@ -3903,7 +4065,7 @@
         <v>23.08</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="17" t="s">
         <v>32</v>
       </c>
@@ -3917,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="15" t="s">
         <v>58</v>
       </c>
@@ -3931,7 +4093,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="17" t="s">
         <v>59</v>
       </c>
@@ -3945,7 +4107,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="15" t="s">
         <v>32</v>
       </c>
@@ -3959,7 +4121,7 @@
         <v>10.64</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="17" t="s">
         <v>34</v>
       </c>
@@ -3973,7 +4135,7 @@
         <v>298.77</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="15" t="s">
         <v>36</v>
       </c>
@@ -3987,7 +4149,7 @@
         <v>62.67</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="17" t="s">
         <v>56</v>
       </c>
@@ -4001,7 +4163,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
         <v>57</v>
       </c>
@@ -4015,7 +4177,7 @@
         <v>167.07</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="17" t="s">
         <v>38</v>
       </c>
@@ -4029,7 +4191,7 @@
         <v>23.12</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="15" t="s">
         <v>32</v>
       </c>
@@ -4043,7 +4205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="17" t="s">
         <v>58</v>
       </c>
@@ -4057,7 +4219,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="15" t="s">
         <v>59</v>
       </c>
@@ -4071,7 +4233,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="17" t="s">
         <v>32</v>
       </c>
@@ -4085,7 +4247,7 @@
         <v>14.71</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="15" t="s">
         <v>34</v>
       </c>
@@ -4099,7 +4261,7 @@
         <v>288.14</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="17" t="s">
         <v>36</v>
       </c>
@@ -4113,7 +4275,7 @@
         <v>72.19</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="15" t="s">
         <v>56</v>
       </c>
@@ -4127,7 +4289,7 @@
         <v>19.64</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="17" t="s">
         <v>57</v>
       </c>
@@ -4141,7 +4303,7 @@
         <v>163.05000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="15" t="s">
         <v>38</v>
       </c>
@@ -4155,7 +4317,7 @@
         <v>26.53</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="17" t="s">
         <v>32</v>
       </c>
@@ -4169,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="15" t="s">
         <v>58</v>
       </c>
@@ -4183,7 +4345,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="17" t="s">
         <v>59</v>
       </c>
@@ -4197,7 +4359,7 @@
         <v>27.77</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="15" t="s">
         <v>32</v>
       </c>
@@ -4211,7 +4373,7 @@
         <v>18.940000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="17" t="s">
         <v>34</v>
       </c>
@@ -4225,7 +4387,7 @@
         <v>288.93</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="15" t="s">
         <v>36</v>
       </c>
@@ -4239,7 +4401,7 @@
         <v>74.73</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="17" t="s">
         <v>56</v>
       </c>
@@ -4253,7 +4415,7 @@
         <v>20.03</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="15" t="s">
         <v>57</v>
       </c>
@@ -4267,7 +4429,7 @@
         <v>167.27</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="17" t="s">
         <v>38</v>
       </c>
@@ -4281,7 +4443,7 @@
         <v>26.71</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="15" t="s">
         <v>32</v>
       </c>
@@ -4295,7 +4457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="17" t="s">
         <v>58</v>
       </c>
@@ -4309,7 +4471,7 @@
         <v>2.27</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="15" t="s">
         <v>59</v>
       </c>
@@ -4323,7 +4485,7 @@
         <v>31.32</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="17" t="s">
         <v>32</v>
       </c>
@@ -4337,7 +4499,7 @@
         <v>24.62</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="15" t="s">
         <v>34</v>
       </c>
@@ -4351,7 +4513,7 @@
         <v>297.10000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="17" t="s">
         <v>36</v>
       </c>
@@ -4365,7 +4527,7 @@
         <v>77.45</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="15" t="s">
         <v>56</v>
       </c>
@@ -4379,7 +4541,7 @@
         <v>21.17</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="17" t="s">
         <v>57</v>
       </c>
@@ -4393,7 +4555,7 @@
         <v>140.53</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="15" t="s">
         <v>38</v>
       </c>
@@ -4407,7 +4569,7 @@
         <v>26.58</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="17" t="s">
         <v>32</v>
       </c>
@@ -4421,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="15" t="s">
         <v>58</v>
       </c>
@@ -4435,7 +4597,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="17" t="s">
         <v>59</v>
       </c>
@@ -4449,7 +4611,7 @@
         <v>40.51</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="15" t="s">
         <v>32</v>
       </c>
@@ -4463,7 +4625,7 @@
         <v>28.02</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="17" t="s">
         <v>34</v>
       </c>
@@ -4477,7 +4639,7 @@
         <v>275.20999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="15" t="s">
         <v>36</v>
       </c>
@@ -4491,7 +4653,7 @@
         <v>88.48</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="17" t="s">
         <v>56</v>
       </c>
@@ -4505,7 +4667,7 @@
         <v>20.440000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="15" t="s">
         <v>57</v>
       </c>
@@ -4519,7 +4681,7 @@
         <v>148.49</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="17" t="s">
         <v>38</v>
       </c>
@@ -4533,7 +4695,7 @@
         <v>25.74</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="15" t="s">
         <v>32</v>
       </c>
@@ -4547,7 +4709,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="17" t="s">
         <v>58</v>
       </c>
@@ -4561,7 +4723,7 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="15" t="s">
         <v>59</v>
       </c>
@@ -4575,7 +4737,7 @@
         <v>41.38</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="17" t="s">
         <v>32</v>
       </c>
@@ -4589,7 +4751,7 @@
         <v>30.89</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="15" t="s">
         <v>34</v>
       </c>
@@ -4603,7 +4765,7 @@
         <v>253.45</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="17" t="s">
         <v>36</v>
       </c>
@@ -4617,7 +4779,7 @@
         <v>80.27</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="15" t="s">
         <v>56</v>
       </c>
@@ -4631,7 +4793,7 @@
         <v>19.03</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="17" t="s">
         <v>57</v>
       </c>
@@ -4645,7 +4807,7 @@
         <v>134.93</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="15" t="s">
         <v>38</v>
       </c>
@@ -4659,7 +4821,7 @@
         <v>23.23</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="17" t="s">
         <v>32</v>
       </c>
@@ -4673,7 +4835,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="15" t="s">
         <v>58</v>
       </c>
@@ -4687,7 +4849,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="17" t="s">
         <v>59</v>
       </c>
@@ -4701,7 +4863,7 @@
         <v>39.42</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="15" t="s">
         <v>32</v>
       </c>
@@ -4715,7 +4877,7 @@
         <v>33.92</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="17" t="s">
         <v>34</v>
       </c>
@@ -4729,7 +4891,7 @@
         <v>262.89</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="15" t="s">
         <v>36</v>
       </c>
@@ -4743,7 +4905,7 @@
         <v>88.76</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A96" s="17" t="s">
         <v>56</v>
       </c>
@@ -4757,7 +4919,7 @@
         <v>20.95</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="15" t="s">
         <v>57</v>
       </c>
@@ -4771,7 +4933,7 @@
         <v>140.56</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="17" t="s">
         <v>38</v>
       </c>
@@ -4785,7 +4947,7 @@
         <v>26.59</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="15" t="s">
         <v>32</v>
       </c>
@@ -4799,7 +4961,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="17" t="s">
         <v>58</v>
       </c>
@@ -4813,7 +4975,7 @@
         <v>11.96</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="15" t="s">
         <v>59</v>
       </c>
@@ -4827,7 +4989,7 @@
         <v>38.549999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="17" t="s">
         <v>32</v>
       </c>
@@ -4841,7 +5003,7 @@
         <v>36.89</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="15" t="s">
         <v>34</v>
       </c>
@@ -4855,7 +5017,7 @@
         <v>262.45999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="17" t="s">
         <v>36</v>
       </c>
@@ -4869,7 +5031,7 @@
         <v>85.67</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="15" t="s">
         <v>56</v>
       </c>
@@ -4883,7 +5045,7 @@
         <v>17.670000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="17" t="s">
         <v>57</v>
       </c>
@@ -4897,7 +5059,7 @@
         <v>107.97</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="15" t="s">
         <v>38</v>
       </c>
@@ -4911,7 +5073,7 @@
         <v>24.47</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="17" t="s">
         <v>32</v>
       </c>
@@ -4925,7 +5087,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="15" t="s">
         <v>58</v>
       </c>
@@ -4939,7 +5101,7 @@
         <v>19.989999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="17" t="s">
         <v>59</v>
       </c>
@@ -4953,7 +5115,7 @@
         <v>49.86</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="15" t="s">
         <v>32</v>
       </c>
@@ -4967,7 +5129,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="17" t="s">
         <v>34</v>
       </c>
@@ -4981,7 +5143,7 @@
         <v>276.23</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="15" t="s">
         <v>36</v>
       </c>
@@ -4995,7 +5157,7 @@
         <v>75.95</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="17" t="s">
         <v>56</v>
       </c>
@@ -5009,7 +5171,7 @@
         <v>21.75</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="15" t="s">
         <v>57</v>
       </c>
@@ -5023,7 +5185,7 @@
         <v>99.46</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="17" t="s">
         <v>38</v>
       </c>
@@ -5037,7 +5199,7 @@
         <v>24.77</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="15" t="s">
         <v>32</v>
       </c>
@@ -5051,7 +5213,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="17" t="s">
         <v>58</v>
       </c>
@@ -5065,7 +5227,7 @@
         <v>26.74</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="15" t="s">
         <v>59</v>
       </c>
@@ -5079,7 +5241,7 @@
         <v>51.68</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="17" t="s">
         <v>32</v>
       </c>
@@ -5093,7 +5255,7 @@
         <v>45.51</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="15" t="s">
         <v>34</v>
       </c>
@@ -5107,7 +5269,7 @@
         <v>288.2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="17" t="s">
         <v>36</v>
       </c>
@@ -5121,7 +5283,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="15" t="s">
         <v>56</v>
       </c>
@@ -5135,7 +5297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="17" t="s">
         <v>57</v>
       </c>
@@ -5149,7 +5311,7 @@
         <v>97.29</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="15" t="s">
         <v>38</v>
       </c>
@@ -5163,7 +5325,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="17" t="s">
         <v>32</v>
       </c>
@@ -5177,7 +5339,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="15" t="s">
         <v>58</v>
       </c>
@@ -5191,7 +5353,7 @@
         <v>30.62</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128" s="17" t="s">
         <v>59</v>
       </c>
@@ -5205,7 +5367,7 @@
         <v>52.74</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="15" t="s">
         <v>32</v>
       </c>
@@ -5219,7 +5381,7 @@
         <v>48.29</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="17" t="s">
         <v>34</v>
       </c>
@@ -5233,7 +5395,7 @@
         <v>274.41000000000003</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="15" t="s">
         <v>36</v>
       </c>
@@ -5247,7 +5409,7 @@
         <v>60.61</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="17" t="s">
         <v>56</v>
       </c>
@@ -5261,7 +5423,7 @@
         <v>19.59</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="15" t="s">
         <v>57</v>
       </c>
@@ -5275,7 +5437,7 @@
         <v>97.13</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="17" t="s">
         <v>38</v>
       </c>
@@ -5289,7 +5451,7 @@
         <v>24.67</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="15" t="s">
         <v>32</v>
       </c>
@@ -5303,7 +5465,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="17" t="s">
         <v>58</v>
       </c>
@@ -5317,7 +5479,7 @@
         <v>35.450000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="15" t="s">
         <v>59</v>
       </c>
@@ -5331,7 +5493,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="17" t="s">
         <v>32</v>
       </c>
@@ -5345,7 +5507,7 @@
         <v>50.33</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="15" t="s">
         <v>34</v>
       </c>
@@ -5359,7 +5521,7 @@
         <v>272.2</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="17" t="s">
         <v>36</v>
       </c>
@@ -5373,7 +5535,7 @@
         <v>61.47</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="15" t="s">
         <v>56</v>
       </c>
@@ -5387,7 +5549,7 @@
         <v>18.98</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="17" t="s">
         <v>57</v>
       </c>
@@ -5401,7 +5563,7 @@
         <v>91.79</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="15" t="s">
         <v>38</v>
       </c>
@@ -5415,7 +5577,7 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144" s="17" t="s">
         <v>32</v>
       </c>
@@ -5429,7 +5591,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="15" t="s">
         <v>58</v>
       </c>
@@ -5443,7 +5605,7 @@
         <v>38.08</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="17" t="s">
         <v>59</v>
       </c>
@@ -5457,7 +5619,7 @@
         <v>80.62</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="15" t="s">
         <v>32</v>
       </c>
@@ -5471,7 +5633,7 @@
         <v>50.93</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="17" t="s">
         <v>34</v>
       </c>
@@ -5485,7 +5647,7 @@
         <v>261.75</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="15" t="s">
         <v>36</v>
       </c>
@@ -5499,7 +5661,7 @@
         <v>80.62</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="17" t="s">
         <v>56</v>
       </c>
@@ -5513,7 +5675,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="15" t="s">
         <v>57</v>
       </c>
@@ -5527,7 +5689,7 @@
         <v>84.63</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="17" t="s">
         <v>38</v>
       </c>
@@ -5541,7 +5703,7 @@
         <v>25.39</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="15" t="s">
         <v>32</v>
       </c>
@@ -5555,7 +5717,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="17" t="s">
         <v>58</v>
       </c>
@@ -5569,7 +5731,7 @@
         <v>37.56</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="15" t="s">
         <v>59</v>
       </c>
@@ -5583,7 +5745,7 @@
         <v>79.92</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="17" t="s">
         <v>32</v>
       </c>
@@ -5597,7 +5759,7 @@
         <v>50.92</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="15" t="s">
         <v>34</v>
       </c>
@@ -5611,7 +5773,7 @@
         <v>241.26</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="17" t="s">
         <v>36</v>
       </c>
@@ -5625,7 +5787,7 @@
         <v>86.04</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="15" t="s">
         <v>56</v>
       </c>
@@ -5639,7 +5801,7 @@
         <v>20.149999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160" s="17" t="s">
         <v>57</v>
       </c>
@@ -5653,7 +5815,7 @@
         <v>76.319999999999993</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="15" t="s">
         <v>38</v>
       </c>
@@ -5667,7 +5829,7 @@
         <v>25.16</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="17" t="s">
         <v>32</v>
       </c>
@@ -5681,7 +5843,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="15" t="s">
         <v>58</v>
       </c>
@@ -5695,7 +5857,7 @@
         <v>38.76</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="17" t="s">
         <v>59</v>
       </c>
@@ -5709,7 +5871,7 @@
         <v>105.69</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="15" t="s">
         <v>32</v>
       </c>
@@ -5723,7 +5885,7 @@
         <v>50.79</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="17" t="s">
         <v>34</v>
       </c>
@@ -5737,7 +5899,7 @@
         <v>228.16</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="15" t="s">
         <v>36</v>
       </c>
@@ -5751,7 +5913,7 @@
         <v>81.56</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="17" t="s">
         <v>56</v>
       </c>
@@ -5765,7 +5927,7 @@
         <v>17.690000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="15" t="s">
         <v>57</v>
       </c>
@@ -5779,7 +5941,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="17" t="s">
         <v>38</v>
       </c>
@@ -5793,7 +5955,7 @@
         <v>23.63</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="15" t="s">
         <v>32</v>
       </c>
@@ -5807,7 +5969,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="17" t="s">
         <v>58</v>
       </c>
@@ -5821,7 +5983,7 @@
         <v>44.32</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="15" t="s">
         <v>59</v>
       </c>
@@ -5835,7 +5997,7 @@
         <v>109.95</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="17" t="s">
         <v>32</v>
       </c>
@@ -5849,7 +6011,7 @@
         <v>50.13</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="15" t="s">
         <v>34</v>
       </c>
@@ -5863,7 +6025,7 @@
         <v>171.45</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176" s="17" t="s">
         <v>36</v>
       </c>
@@ -5877,7 +6039,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="15" t="s">
         <v>56</v>
       </c>
@@ -5891,7 +6053,7 @@
         <v>19.73</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="17" t="s">
         <v>57</v>
       </c>
@@ -5905,7 +6067,7 @@
         <v>75.069999999999993</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="15" t="s">
         <v>38</v>
       </c>
@@ -5919,7 +6081,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="17" t="s">
         <v>32</v>
       </c>
@@ -5933,7 +6095,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="15" t="s">
         <v>58</v>
       </c>
@@ -5947,7 +6109,7 @@
         <v>45.22</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="17" t="s">
         <v>59</v>
       </c>
@@ -5961,7 +6123,7 @@
         <v>125.89</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="15" t="s">
         <v>32</v>
       </c>
@@ -5975,7 +6137,7 @@
         <v>50.93</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="17" t="s">
         <v>34</v>
       </c>
@@ -5989,7 +6151,7 @@
         <v>134.6</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="15" t="s">
         <v>36</v>
       </c>
@@ -6003,7 +6165,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="17" t="s">
         <v>56</v>
       </c>
@@ -6017,7 +6179,7 @@
         <v>18.72</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="15" t="s">
         <v>57</v>
       </c>
@@ -6031,7 +6193,7 @@
         <v>64.38</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="17" t="s">
         <v>38</v>
       </c>
@@ -6045,7 +6207,7 @@
         <v>21.28</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="15" t="s">
         <v>32</v>
       </c>
@@ -6059,7 +6221,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="17" t="s">
         <v>58</v>
       </c>
@@ -6073,7 +6235,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="15" t="s">
         <v>59</v>
       </c>
@@ -6087,7 +6249,7 @@
         <v>132.11000000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A192" s="17" t="s">
         <v>32</v>
       </c>
@@ -6101,7 +6263,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="15" t="s">
         <v>34</v>
       </c>
@@ -6115,7 +6277,7 @@
         <v>164.65</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="17" t="s">
         <v>36</v>
       </c>
@@ -6129,7 +6291,7 @@
         <v>90.31</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="15" t="s">
         <v>56</v>
       </c>
@@ -6143,7 +6305,7 @@
         <v>19.66</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="17" t="s">
         <v>57</v>
       </c>
@@ -6157,7 +6319,7 @@
         <v>69.13</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="15" t="s">
         <v>38</v>
       </c>
@@ -6171,7 +6333,7 @@
         <v>22.24</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="17" t="s">
         <v>32</v>
       </c>
@@ -6185,7 +6347,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="15" t="s">
         <v>58</v>
       </c>
@@ -6199,7 +6361,7 @@
         <v>49.34</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="17" t="s">
         <v>59</v>
       </c>
@@ -6213,7 +6375,7 @@
         <v>114.65</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="15" t="s">
         <v>32</v>
       </c>
@@ -6227,7 +6389,7 @@
         <v>48.14</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="17" t="s">
         <v>34</v>
       </c>
@@ -6241,7 +6403,7 @@
         <v>179.98</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="15" t="s">
         <v>36</v>
       </c>
@@ -6255,7 +6417,7 @@
         <v>79.05</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="17" t="s">
         <v>56</v>
       </c>
@@ -6269,7 +6431,7 @@
         <v>17.63</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="15" t="s">
         <v>57</v>
       </c>
@@ -6283,7 +6445,7 @@
         <v>34.71</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="17" t="s">
         <v>38</v>
       </c>
@@ -6297,7 +6459,7 @@
         <v>21.55</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="15" t="s">
         <v>32</v>
       </c>
@@ -6311,7 +6473,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A208" s="17" t="s">
         <v>58</v>
       </c>
@@ -6325,7 +6487,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="15" t="s">
         <v>59</v>
       </c>
@@ -6339,7 +6501,7 @@
         <v>124.66</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="17" t="s">
         <v>32</v>
       </c>
@@ -6353,7 +6515,7 @@
         <v>46.04</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="15" t="s">
         <v>34</v>
       </c>
@@ -6367,7 +6529,7 @@
         <v>135.44</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="17" t="s">
         <v>36</v>
       </c>
@@ -6381,7 +6543,7 @@
         <v>77.73</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="15" t="s">
         <v>56</v>
       </c>
@@ -6395,7 +6557,7 @@
         <v>19.47</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="17" t="s">
         <v>57</v>
       </c>
@@ -6409,7 +6571,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="15" t="s">
         <v>38</v>
       </c>
@@ -6423,7 +6585,7 @@
         <v>20.14</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="17" t="s">
         <v>32</v>
       </c>
@@ -6437,7 +6599,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="15" t="s">
         <v>58</v>
       </c>
@@ -6451,7 +6613,7 @@
         <v>61.22</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="17" t="s">
         <v>59</v>
       </c>
@@ -6465,7 +6627,7 @@
         <v>137.32</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="15" t="s">
         <v>32</v>
       </c>
@@ -6479,7 +6641,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="17" t="s">
         <v>34</v>
       </c>
@@ -6493,7 +6655,7 @@
         <v>52.55</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="15" t="s">
         <v>36</v>
       </c>
@@ -6507,7 +6669,7 @@
         <v>16.02</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="17" t="s">
         <v>56</v>
       </c>
@@ -6521,7 +6683,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="15" t="s">
         <v>57</v>
       </c>
@@ -6535,7 +6697,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A224" s="17" t="s">
         <v>38</v>
       </c>
@@ -6549,7 +6711,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="15" t="s">
         <v>32</v>
       </c>
@@ -6563,7 +6725,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="17" t="s">
         <v>58</v>
       </c>
@@ -6577,7 +6739,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="15" t="s">
         <v>59</v>
       </c>
@@ -6591,7 +6753,7 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="17" t="s">
         <v>32</v>
       </c>
@@ -6605,7 +6767,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="15" t="s">
         <v>34</v>
       </c>
@@ -6619,7 +6781,7 @@
         <v>51.96</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="17" t="s">
         <v>36</v>
       </c>
@@ -6633,7 +6795,7 @@
         <v>16.21</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="15" t="s">
         <v>56</v>
       </c>
@@ -6647,7 +6809,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="17" t="s">
         <v>57</v>
       </c>
@@ -6661,7 +6823,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="15" t="s">
         <v>38</v>
       </c>
@@ -6675,7 +6837,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="17" t="s">
         <v>32</v>
       </c>
@@ -6689,7 +6851,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="15" t="s">
         <v>58</v>
       </c>
@@ -6703,7 +6865,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="17" t="s">
         <v>59</v>
       </c>
@@ -6717,7 +6879,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="15" t="s">
         <v>32</v>
       </c>
@@ -6731,7 +6893,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="17" t="s">
         <v>34</v>
       </c>
@@ -6745,7 +6907,7 @@
         <v>52.45</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="15" t="s">
         <v>36</v>
       </c>
@@ -6759,7 +6921,7 @@
         <v>16.329999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A240" s="17" t="s">
         <v>56</v>
       </c>
@@ -6773,7 +6935,7 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="15" t="s">
         <v>57</v>
       </c>
@@ -6787,7 +6949,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="17" t="s">
         <v>38</v>
       </c>
@@ -6801,7 +6963,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="15" t="s">
         <v>32</v>
       </c>
@@ -6815,7 +6977,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="17" t="s">
         <v>58</v>
       </c>
@@ -6829,7 +6991,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="15" t="s">
         <v>59</v>
       </c>
@@ -6843,7 +7005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="17" t="s">
         <v>32</v>
       </c>
@@ -6857,7 +7019,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="15" t="s">
         <v>34</v>
       </c>
@@ -6871,7 +7033,7 @@
         <v>52.03</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="17" t="s">
         <v>36</v>
       </c>
@@ -6885,7 +7047,7 @@
         <v>16.66</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="15" t="s">
         <v>56</v>
       </c>
@@ -6899,7 +7061,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="17" t="s">
         <v>57</v>
       </c>
@@ -6913,7 +7075,7 @@
         <v>21.44</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="15" t="s">
         <v>38</v>
       </c>
@@ -6927,7 +7089,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="17" t="s">
         <v>32</v>
       </c>
@@ -6941,7 +7103,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="15" t="s">
         <v>58</v>
       </c>
@@ -6955,7 +7117,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="17" t="s">
         <v>59</v>
       </c>
@@ -6969,7 +7131,7 @@
         <v>14.38</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="15" t="s">
         <v>32</v>
       </c>
@@ -6983,7 +7145,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A256" s="17" t="s">
         <v>34</v>
       </c>
@@ -6997,7 +7159,7 @@
         <v>51.94</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="15" t="s">
         <v>36</v>
       </c>
@@ -7011,7 +7173,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="17" t="s">
         <v>56</v>
       </c>
@@ -7025,7 +7187,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="15" t="s">
         <v>57</v>
       </c>
@@ -7039,7 +7201,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="17" t="s">
         <v>38</v>
       </c>
@@ -7053,7 +7215,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="15" t="s">
         <v>32</v>
       </c>
@@ -7067,7 +7229,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="17" t="s">
         <v>58</v>
       </c>
@@ -7081,7 +7243,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="15" t="s">
         <v>59</v>
       </c>
@@ -7095,7 +7257,7 @@
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="17" t="s">
         <v>32</v>
       </c>
@@ -7109,7 +7271,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="15" t="s">
         <v>34</v>
       </c>
@@ -7123,7 +7285,7 @@
         <v>51.43</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="17" t="s">
         <v>36</v>
       </c>
@@ -7137,7 +7299,7 @@
         <v>19.13</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="15" t="s">
         <v>56</v>
       </c>
@@ -7151,7 +7313,7 @@
         <v>5.21</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="17" t="s">
         <v>57</v>
       </c>
@@ -7165,7 +7327,7 @@
         <v>20.38</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="15" t="s">
         <v>38</v>
       </c>
@@ -7179,7 +7341,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="17" t="s">
         <v>32</v>
       </c>
@@ -7193,7 +7355,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="15" t="s">
         <v>58</v>
       </c>
@@ -7207,7 +7369,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A272" s="17" t="s">
         <v>59</v>
       </c>
@@ -7221,7 +7383,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="15" t="s">
         <v>32</v>
       </c>
@@ -7235,7 +7397,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="17" t="s">
         <v>34</v>
       </c>
@@ -7249,7 +7411,7 @@
         <v>51.43</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="15" t="s">
         <v>36</v>
       </c>
@@ -7263,7 +7425,7 @@
         <v>19.61</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="17" t="s">
         <v>56</v>
       </c>
@@ -7277,7 +7439,7 @@
         <v>5.19</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="15" t="s">
         <v>57</v>
       </c>
@@ -7291,7 +7453,7 @@
         <v>20.21</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="17" t="s">
         <v>38</v>
       </c>
@@ -7305,7 +7467,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="15" t="s">
         <v>32</v>
       </c>
@@ -7319,7 +7481,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="17" t="s">
         <v>58</v>
       </c>
@@ -7333,7 +7495,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="15" t="s">
         <v>59</v>
       </c>
@@ -7347,7 +7509,7 @@
         <v>20.47</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="17" t="s">
         <v>32</v>
       </c>
@@ -7361,7 +7523,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="15" t="s">
         <v>34</v>
       </c>
@@ -7375,7 +7537,7 @@
         <v>51.23</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="17" t="s">
         <v>36</v>
       </c>
@@ -7389,7 +7551,7 @@
         <v>20.96</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="15" t="s">
         <v>56</v>
       </c>
@@ -7403,7 +7565,7 @@
         <v>5.14</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="17" t="s">
         <v>57</v>
       </c>
@@ -7417,7 +7579,7 @@
         <v>20.21</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="15" t="s">
         <v>38</v>
       </c>
@@ -7431,7 +7593,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A288" s="17" t="s">
         <v>32</v>
       </c>
@@ -7445,7 +7607,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="15" t="s">
         <v>58</v>
       </c>
@@ -7459,7 +7621,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="17" t="s">
         <v>59</v>
       </c>
@@ -7473,7 +7635,7 @@
         <v>22.12</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="15" t="s">
         <v>32</v>
       </c>
@@ -7487,7 +7649,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="17" t="s">
         <v>34</v>
       </c>
@@ -7501,7 +7663,7 @@
         <v>51.23</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="15" t="s">
         <v>36</v>
       </c>
@@ -7515,7 +7677,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="17" t="s">
         <v>56</v>
       </c>
@@ -7529,7 +7691,7 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="15" t="s">
         <v>57</v>
       </c>
@@ -7543,7 +7705,7 @@
         <v>20.49</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="17" t="s">
         <v>38</v>
       </c>
@@ -7557,7 +7719,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="15" t="s">
         <v>32</v>
       </c>
@@ -7571,7 +7733,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="17" t="s">
         <v>58</v>
       </c>
@@ -7585,7 +7747,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="15" t="s">
         <v>59</v>
       </c>
@@ -7599,7 +7761,7 @@
         <v>22.79</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="17" t="s">
         <v>32</v>
       </c>
@@ -7613,7 +7775,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="15" t="s">
         <v>34</v>
       </c>
@@ -7627,7 +7789,7 @@
         <v>51.26</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="17" t="s">
         <v>36</v>
       </c>
@@ -7641,7 +7803,7 @@
         <v>22.21</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="15" t="s">
         <v>56</v>
       </c>
@@ -7655,7 +7817,7 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A304" s="17" t="s">
         <v>57</v>
       </c>
@@ -7669,7 +7831,7 @@
         <v>20.48</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" s="15" t="s">
         <v>38</v>
       </c>
@@ -7683,7 +7845,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="17" t="s">
         <v>32</v>
       </c>
@@ -7697,7 +7859,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" s="15" t="s">
         <v>58</v>
       </c>
@@ -7711,7 +7873,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" s="17" t="s">
         <v>59</v>
       </c>
@@ -7725,7 +7887,7 @@
         <v>25.73</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" s="15" t="s">
         <v>32</v>
       </c>
@@ -7739,7 +7901,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" s="17" t="s">
         <v>34</v>
       </c>
@@ -7753,7 +7915,7 @@
         <v>51.26</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" s="15" t="s">
         <v>36</v>
       </c>
@@ -7767,7 +7929,7 @@
         <v>24.56</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" s="17" t="s">
         <v>56</v>
       </c>
@@ -7781,7 +7943,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" s="15" t="s">
         <v>57</v>
       </c>
@@ -7795,7 +7957,7 @@
         <v>20.47</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" s="17" t="s">
         <v>38</v>
       </c>
@@ -7809,7 +7971,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" s="15" t="s">
         <v>32</v>
       </c>
@@ -7823,7 +7985,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" s="17" t="s">
         <v>58</v>
       </c>
@@ -7837,7 +7999,7 @@
         <v>18.010000000000002</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="15" t="s">
         <v>59</v>
       </c>
@@ -7851,7 +8013,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" s="17" t="s">
         <v>32</v>
       </c>
@@ -7865,7 +8027,7 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" s="15" t="s">
         <v>34</v>
       </c>
@@ -7879,7 +8041,7 @@
         <v>50.52</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A320" s="17" t="s">
         <v>36</v>
       </c>
@@ -7893,7 +8055,7 @@
         <v>25.45</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="15" t="s">
         <v>56</v>
       </c>
@@ -7907,7 +8069,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="17" t="s">
         <v>57</v>
       </c>
@@ -7921,7 +8083,7 @@
         <v>20.47</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="15" t="s">
         <v>38</v>
       </c>
@@ -7935,7 +8097,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="17" t="s">
         <v>32</v>
       </c>
@@ -7949,7 +8111,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="15" t="s">
         <v>58</v>
       </c>
@@ -7963,7 +8125,7 @@
         <v>25.92</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="17" t="s">
         <v>59</v>
       </c>
@@ -7977,7 +8139,7 @@
         <v>28.71</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="15" t="s">
         <v>32</v>
       </c>
@@ -7991,7 +8153,7 @@
         <v>6.76</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="17" t="s">
         <v>34</v>
       </c>
@@ -8005,7 +8167,7 @@
         <v>50.43</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="15" t="s">
         <v>36</v>
       </c>
@@ -8019,7 +8181,7 @@
         <v>25.68</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="17" t="s">
         <v>56</v>
       </c>
@@ -8033,7 +8195,7 @@
         <v>5.61</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="15" t="s">
         <v>57</v>
       </c>
@@ -8047,7 +8209,7 @@
         <v>12.07</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="17" t="s">
         <v>38</v>
       </c>
@@ -8061,7 +8223,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="15" t="s">
         <v>32</v>
       </c>
@@ -8075,7 +8237,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="17" t="s">
         <v>58</v>
       </c>
@@ -8089,7 +8251,7 @@
         <v>34.08</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="15" t="s">
         <v>59</v>
       </c>
@@ -8103,7 +8265,7 @@
         <v>30.98</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A336" s="17" t="s">
         <v>32</v>
       </c>
@@ -8117,7 +8279,7 @@
         <v>7.03</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="15" t="s">
         <v>34</v>
       </c>
@@ -8131,7 +8293,7 @@
         <v>50.72</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="17" t="s">
         <v>36</v>
       </c>
@@ -8145,7 +8307,7 @@
         <v>27.01</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="15" t="s">
         <v>56</v>
       </c>
@@ -8159,7 +8321,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="17" t="s">
         <v>57</v>
       </c>
@@ -8173,7 +8335,7 @@
         <v>12.07</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="15" t="s">
         <v>38</v>
       </c>
@@ -8187,7 +8349,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="17" t="s">
         <v>32</v>
       </c>
@@ -8201,7 +8363,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="15" t="s">
         <v>58</v>
       </c>
@@ -8215,7 +8377,7 @@
         <v>36.71</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="17" t="s">
         <v>59</v>
       </c>
@@ -8229,7 +8391,7 @@
         <v>33.479999999999997</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="15" t="s">
         <v>32</v>
       </c>
@@ -8243,7 +8405,7 @@
         <v>7.26</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="17" t="s">
         <v>34</v>
       </c>
@@ -8257,7 +8419,7 @@
         <v>50.1</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="15" t="s">
         <v>36</v>
       </c>
@@ -8271,7 +8433,7 @@
         <v>27.25</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="17" t="s">
         <v>56</v>
       </c>
@@ -8285,7 +8447,7 @@
         <v>5.58</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="15" t="s">
         <v>57</v>
       </c>
@@ -8299,7 +8461,7 @@
         <v>12.07</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="17" t="s">
         <v>38</v>
       </c>
@@ -8313,7 +8475,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="15" t="s">
         <v>32</v>
       </c>
@@ -8327,7 +8489,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A352" s="17" t="s">
         <v>58</v>
       </c>
@@ -8341,7 +8503,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="15" t="s">
         <v>59</v>
       </c>
@@ -8355,7 +8517,7 @@
         <v>38.61</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="17" t="s">
         <v>32</v>
       </c>
@@ -8369,7 +8531,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="15" t="s">
         <v>34</v>
       </c>
@@ -8383,7 +8545,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="17" t="s">
         <v>36</v>
       </c>
@@ -8397,7 +8559,7 @@
         <v>27.55</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="15" t="s">
         <v>56</v>
       </c>
@@ -8411,7 +8573,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="17" t="s">
         <v>57</v>
       </c>
@@ -8425,7 +8587,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="15" t="s">
         <v>38</v>
       </c>
@@ -8439,7 +8601,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="17" t="s">
         <v>32</v>
       </c>
@@ -8453,7 +8615,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="15" t="s">
         <v>58</v>
       </c>
@@ -8467,7 +8629,7 @@
         <v>39.22</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="17" t="s">
         <v>59</v>
       </c>
@@ -8481,7 +8643,7 @@
         <v>44.58</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="15" t="s">
         <v>32</v>
       </c>
@@ -8495,7 +8657,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="17" t="s">
         <v>34</v>
       </c>
@@ -8509,7 +8671,7 @@
         <v>51.72</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="15" t="s">
         <v>36</v>
       </c>
@@ -8523,7 +8685,7 @@
         <v>29.31</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="17" t="s">
         <v>56</v>
       </c>
@@ -8537,7 +8699,7 @@
         <v>5.63</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" s="15" t="s">
         <v>57</v>
       </c>
@@ -8551,7 +8713,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A368" s="17" t="s">
         <v>38</v>
       </c>
@@ -8565,7 +8727,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" s="15" t="s">
         <v>32</v>
       </c>
@@ -8579,7 +8741,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" s="17" t="s">
         <v>58</v>
       </c>
@@ -8593,7 +8755,7 @@
         <v>40.68</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" s="15" t="s">
         <v>59</v>
       </c>
@@ -8607,7 +8769,7 @@
         <v>49.44</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" s="17" t="s">
         <v>32</v>
       </c>
@@ -8621,7 +8783,7 @@
         <v>7.98</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" s="15" t="s">
         <v>34</v>
       </c>
@@ -8635,7 +8797,7 @@
         <v>48.37</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" s="17" t="s">
         <v>36</v>
       </c>
@@ -8649,7 +8811,7 @@
         <v>29.54</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" s="15" t="s">
         <v>56</v>
       </c>
@@ -8663,7 +8825,7 @@
         <v>5.63</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" s="17" t="s">
         <v>57</v>
       </c>
@@ -8677,7 +8839,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" s="15" t="s">
         <v>38</v>
       </c>
@@ -8691,7 +8853,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" s="17" t="s">
         <v>32</v>
       </c>
@@ -8705,7 +8867,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" s="15" t="s">
         <v>58</v>
       </c>
@@ -8719,7 +8881,7 @@
         <v>42.29</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" s="17" t="s">
         <v>59</v>
       </c>
@@ -8733,7 +8895,7 @@
         <v>55.58</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" s="15" t="s">
         <v>32</v>
       </c>
@@ -8747,7 +8909,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" s="17" t="s">
         <v>34</v>
       </c>
@@ -8761,7 +8923,7 @@
         <v>47.32</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" s="15" t="s">
         <v>36</v>
       </c>
@@ -8775,7 +8937,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A384" s="17" t="s">
         <v>56</v>
       </c>
@@ -8789,7 +8951,7 @@
         <v>5.33</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A385" s="15" t="s">
         <v>57</v>
       </c>
@@ -8803,7 +8965,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" s="17" t="s">
         <v>38</v>
       </c>
@@ -8817,7 +8979,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" s="15" t="s">
         <v>32</v>
       </c>
@@ -8831,7 +8993,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" s="17" t="s">
         <v>58</v>
       </c>
@@ -8845,7 +9007,7 @@
         <v>45.16</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" s="15" t="s">
         <v>59</v>
       </c>
@@ -8859,7 +9021,7 @@
         <v>58.72</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" s="17" t="s">
         <v>32</v>
       </c>
@@ -8873,7 +9035,7 @@
         <v>8.91</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" s="15" t="s">
         <v>34</v>
       </c>
@@ -8887,7 +9049,7 @@
         <v>46.08</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" s="17" t="s">
         <v>36</v>
       </c>
@@ -8901,7 +9063,7 @@
         <v>30.03</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393" s="15" t="s">
         <v>56</v>
       </c>
@@ -8915,7 +9077,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" s="17" t="s">
         <v>57</v>
       </c>
@@ -8929,7 +9091,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" s="15" t="s">
         <v>38</v>
       </c>
@@ -8943,7 +9105,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396" s="17" t="s">
         <v>32</v>
       </c>
@@ -8957,7 +9119,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" s="15" t="s">
         <v>58</v>
       </c>
@@ -8971,7 +9133,7 @@
         <v>48.91</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" s="17" t="s">
         <v>59</v>
       </c>
@@ -8985,7 +9147,7 @@
         <v>60.74</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" s="15" t="s">
         <v>32</v>
       </c>
@@ -8999,7 +9161,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A400" s="17" t="s">
         <v>34</v>
       </c>
@@ -9013,7 +9175,7 @@
         <v>46.86</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" s="15" t="s">
         <v>36</v>
       </c>
@@ -9027,7 +9189,7 @@
         <v>30.77</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" s="17" t="s">
         <v>56</v>
       </c>
@@ -9041,7 +9203,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" s="15" t="s">
         <v>57</v>
       </c>
@@ -9055,7 +9217,7 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" s="17" t="s">
         <v>38</v>
       </c>
@@ -9069,7 +9231,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" s="15" t="s">
         <v>32</v>
       </c>
@@ -9083,7 +9245,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" s="17" t="s">
         <v>58</v>
       </c>
@@ -9097,7 +9259,7 @@
         <v>53.67</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" s="15" t="s">
         <v>59</v>
       </c>
@@ -9111,7 +9273,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" s="17" t="s">
         <v>32</v>
       </c>
@@ -9125,7 +9287,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" s="15" t="s">
         <v>34</v>
       </c>
@@ -9139,7 +9301,7 @@
         <v>40.98</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" s="17" t="s">
         <v>36</v>
       </c>
@@ -9153,7 +9315,7 @@
         <v>30.79</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" s="15" t="s">
         <v>56</v>
       </c>
@@ -9167,7 +9329,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" s="17" t="s">
         <v>57</v>
       </c>
@@ -9181,7 +9343,7 @@
         <v>8.11</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" s="15" t="s">
         <v>38</v>
       </c>
@@ -9195,7 +9357,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" s="17" t="s">
         <v>32</v>
       </c>
@@ -9209,7 +9371,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" s="15" t="s">
         <v>58</v>
       </c>
@@ -9223,7 +9385,7 @@
         <v>60.04</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A416" s="17" t="s">
         <v>59</v>
       </c>
@@ -9237,7 +9399,7 @@
         <v>63.71</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" s="15" t="s">
         <v>32</v>
       </c>
@@ -9251,7 +9413,7 @@
         <v>8.81</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418" s="17" t="s">
         <v>34</v>
       </c>
@@ -9265,7 +9427,7 @@
         <v>40.43</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" s="15" t="s">
         <v>36</v>
       </c>
@@ -9279,7 +9441,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420" s="17" t="s">
         <v>56</v>
       </c>
@@ -9293,7 +9455,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A421" s="15" t="s">
         <v>57</v>
       </c>
@@ -9307,7 +9469,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A422" s="17" t="s">
         <v>38</v>
       </c>
@@ -9321,7 +9483,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" s="15" t="s">
         <v>32</v>
       </c>
@@ -9335,7 +9497,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" s="17" t="s">
         <v>58</v>
       </c>
@@ -9349,7 +9511,7 @@
         <v>67.48</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" s="15" t="s">
         <v>59</v>
       </c>
@@ -9363,7 +9525,7 @@
         <v>66.16</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" s="17" t="s">
         <v>32</v>
       </c>
@@ -9377,7 +9539,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427" s="15" t="s">
         <v>34</v>
       </c>
@@ -9391,7 +9553,7 @@
         <v>40.43</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A428" s="17" t="s">
         <v>36</v>
       </c>
@@ -9405,7 +9567,7 @@
         <v>33.950000000000003</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A429" s="15" t="s">
         <v>56</v>
       </c>
@@ -9419,7 +9581,7 @@
         <v>5.74</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430" s="17" t="s">
         <v>57</v>
       </c>
@@ -9433,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A431" s="15" t="s">
         <v>38</v>
       </c>
@@ -9447,7 +9609,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A432" s="17" t="s">
         <v>32</v>
       </c>
@@ -9461,7 +9623,7 @@
         <v>1.07</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" s="15" t="s">
         <v>58</v>
       </c>
@@ -9475,7 +9637,7 @@
         <v>81.739999999999995</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" s="17" t="s">
         <v>59</v>
       </c>
@@ -9489,7 +9651,7 @@
         <v>69.459999999999994</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" s="15" t="s">
         <v>32</v>
       </c>
@@ -9503,7 +9665,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436" s="17" t="s">
         <v>34</v>
       </c>
@@ -9517,7 +9679,7 @@
         <v>290.60000000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437" s="15" t="s">
         <v>36</v>
       </c>
@@ -9531,7 +9693,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" s="17" t="s">
         <v>56</v>
       </c>
@@ -9545,7 +9707,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" s="15" t="s">
         <v>57</v>
       </c>
@@ -9559,7 +9721,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440" s="17" t="s">
         <v>38</v>
       </c>
@@ -9573,7 +9735,7 @@
         <v>11.88</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" s="15" t="s">
         <v>32</v>
       </c>
@@ -9587,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" s="17" t="s">
         <v>58</v>
       </c>
@@ -9601,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" s="15" t="s">
         <v>59</v>
       </c>
@@ -9615,7 +9777,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444" s="17" t="s">
         <v>32</v>
       </c>
@@ -9629,7 +9791,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A445" s="15" t="s">
         <v>34</v>
       </c>
@@ -9643,7 +9805,7 @@
         <v>287.44</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A446" s="17" t="s">
         <v>36</v>
       </c>
@@ -9657,7 +9819,7 @@
         <v>23.93</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A447" s="15" t="s">
         <v>56</v>
       </c>
@@ -9671,7 +9833,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A448" s="17" t="s">
         <v>57</v>
       </c>
@@ -9685,7 +9847,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A449" s="15" t="s">
         <v>38</v>
       </c>
@@ -9699,7 +9861,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A450" s="17" t="s">
         <v>32</v>
       </c>
@@ -9713,7 +9875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A451" s="15" t="s">
         <v>58</v>
       </c>
@@ -9727,7 +9889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" s="17" t="s">
         <v>59</v>
       </c>
@@ -9741,7 +9903,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A453" s="15" t="s">
         <v>32</v>
       </c>
@@ -9755,7 +9917,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A454" s="17" t="s">
         <v>34</v>
       </c>
@@ -9769,7 +9931,7 @@
         <v>293.32</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A455" s="15" t="s">
         <v>36</v>
       </c>
@@ -9783,7 +9945,7 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A456" s="17" t="s">
         <v>56</v>
       </c>
@@ -9797,7 +9959,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A457" s="15" t="s">
         <v>57</v>
       </c>
@@ -9811,7 +9973,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A458" s="17" t="s">
         <v>38</v>
       </c>
@@ -9825,7 +9987,7 @@
         <v>12.19</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459" s="15" t="s">
         <v>32</v>
       </c>
@@ -9839,7 +10001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460" s="17" t="s">
         <v>58</v>
       </c>
@@ -9853,7 +10015,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461" s="15" t="s">
         <v>59</v>
       </c>
@@ -9867,7 +10029,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A462" s="17" t="s">
         <v>32</v>
       </c>
@@ -9881,7 +10043,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A463" s="15" t="s">
         <v>34</v>
       </c>
@@ -9895,7 +10057,7 @@
         <v>297.54000000000002</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A464" s="17" t="s">
         <v>36</v>
       </c>
@@ -9909,7 +10071,7 @@
         <v>26.99</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A465" s="15" t="s">
         <v>56</v>
       </c>
@@ -9923,7 +10085,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A466" s="17" t="s">
         <v>57</v>
       </c>
@@ -9937,7 +10099,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A467" s="15" t="s">
         <v>38</v>
       </c>
@@ -9951,7 +10113,7 @@
         <v>15.19</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468" s="17" t="s">
         <v>32</v>
       </c>
@@ -9965,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469" s="15" t="s">
         <v>58</v>
       </c>
@@ -9979,7 +10141,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" s="17" t="s">
         <v>59</v>
       </c>
@@ -9993,7 +10155,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A471" s="15" t="s">
         <v>32</v>
       </c>
@@ -10007,7 +10169,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A472" s="17" t="s">
         <v>34</v>
       </c>
@@ -10021,7 +10183,7 @@
         <v>291.94</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A473" s="15" t="s">
         <v>36</v>
       </c>
@@ -10035,7 +10197,7 @@
         <v>27.02</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A474" s="17" t="s">
         <v>56</v>
       </c>
@@ -10049,7 +10211,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A475" s="15" t="s">
         <v>57</v>
       </c>
@@ -10063,7 +10225,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A476" s="17" t="s">
         <v>38</v>
       </c>
@@ -10077,7 +10239,7 @@
         <v>15.21</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A477" s="15" t="s">
         <v>32</v>
       </c>
@@ -10091,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478" s="17" t="s">
         <v>58</v>
       </c>
@@ -10105,7 +10267,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" s="15" t="s">
         <v>59</v>
       </c>
@@ -10119,7 +10281,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A480" s="17" t="s">
         <v>32</v>
       </c>
@@ -10133,7 +10295,7 @@
         <v>3.18</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A481" s="15" t="s">
         <v>34</v>
       </c>
@@ -10147,7 +10309,7 @@
         <v>281.62</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A482" s="17" t="s">
         <v>36</v>
       </c>
@@ -10161,7 +10323,7 @@
         <v>31.13</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A483" s="15" t="s">
         <v>56</v>
       </c>
@@ -10175,7 +10337,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A484" s="17" t="s">
         <v>57</v>
       </c>
@@ -10189,7 +10351,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A485" s="15" t="s">
         <v>38</v>
       </c>
@@ -10203,7 +10365,7 @@
         <v>17.46</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A486" s="17" t="s">
         <v>32</v>
       </c>
@@ -10217,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487" s="15" t="s">
         <v>58</v>
       </c>
@@ -10231,7 +10393,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" s="17" t="s">
         <v>59</v>
       </c>
@@ -10245,7 +10407,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A489" s="15" t="s">
         <v>32</v>
       </c>
@@ -10259,7 +10421,7 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A490" s="17" t="s">
         <v>34</v>
       </c>
@@ -10273,7 +10435,7 @@
         <v>282.22000000000003</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A491" s="15" t="s">
         <v>36</v>
       </c>
@@ -10287,7 +10449,7 @@
         <v>32.22</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A492" s="17" t="s">
         <v>56</v>
       </c>
@@ -10301,7 +10463,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A493" s="15" t="s">
         <v>57</v>
       </c>
@@ -10315,7 +10477,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A494" s="17" t="s">
         <v>38</v>
       </c>
@@ -10329,7 +10491,7 @@
         <v>17.579999999999998</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A495" s="15" t="s">
         <v>32</v>
       </c>
@@ -10343,7 +10505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A496" s="17" t="s">
         <v>58</v>
       </c>
@@ -10357,7 +10519,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A497" s="15" t="s">
         <v>59</v>
       </c>
@@ -10371,7 +10533,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A498" s="17" t="s">
         <v>32</v>
       </c>
@@ -10385,7 +10547,7 @@
         <v>5.32</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A499" s="15" t="s">
         <v>34</v>
       </c>
@@ -10399,7 +10561,7 @@
         <v>290.19</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A500" s="17" t="s">
         <v>36</v>
       </c>
@@ -10413,7 +10575,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A501" s="15" t="s">
         <v>56</v>
       </c>
@@ -10427,7 +10589,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A502" s="17" t="s">
         <v>57</v>
       </c>
@@ -10441,7 +10603,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A503" s="15" t="s">
         <v>38</v>
       </c>
@@ -10455,7 +10617,7 @@
         <v>17.489999999999998</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A504" s="17" t="s">
         <v>32</v>
       </c>
@@ -10469,7 +10631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A505" s="15" t="s">
         <v>58</v>
       </c>
@@ -10483,7 +10645,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A506" s="17" t="s">
         <v>59</v>
       </c>
@@ -10497,7 +10659,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A507" s="15" t="s">
         <v>32</v>
       </c>
@@ -10511,7 +10673,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A508" s="17" t="s">
         <v>34</v>
       </c>
@@ -10525,7 +10687,7 @@
         <v>269.13</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A509" s="15" t="s">
         <v>36</v>
       </c>
@@ -10539,7 +10701,7 @@
         <v>38.15</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A510" s="17" t="s">
         <v>56</v>
       </c>
@@ -10553,7 +10715,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A511" s="15" t="s">
         <v>57</v>
       </c>
@@ -10567,7 +10729,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A512" s="17" t="s">
         <v>38</v>
       </c>
@@ -10581,7 +10743,7 @@
         <v>16.940000000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A513" s="15" t="s">
         <v>32</v>
       </c>
@@ -10595,7 +10757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" s="17" t="s">
         <v>58</v>
       </c>
@@ -10609,7 +10771,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" s="15" t="s">
         <v>59</v>
       </c>
@@ -10623,7 +10785,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A516" s="17" t="s">
         <v>32</v>
       </c>
@@ -10637,7 +10799,7 @@
         <v>6.68</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A517" s="15" t="s">
         <v>34</v>
       </c>
@@ -10651,7 +10813,7 @@
         <v>248.17</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A518" s="17" t="s">
         <v>36</v>
       </c>
@@ -10665,7 +10827,7 @@
         <v>34.61</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A519" s="15" t="s">
         <v>56</v>
       </c>
@@ -10679,7 +10841,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A520" s="17" t="s">
         <v>57</v>
       </c>
@@ -10693,7 +10855,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A521" s="15" t="s">
         <v>38</v>
       </c>
@@ -10707,7 +10869,7 @@
         <v>15.29</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A522" s="17" t="s">
         <v>32</v>
       </c>
@@ -10721,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523" s="15" t="s">
         <v>58</v>
       </c>
@@ -10735,7 +10897,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524" s="17" t="s">
         <v>59</v>
       </c>
@@ -10749,7 +10911,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A525" s="15" t="s">
         <v>32</v>
       </c>
@@ -10763,7 +10925,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A526" s="17" t="s">
         <v>34</v>
       </c>
@@ -10777,7 +10939,7 @@
         <v>257.17</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A527" s="15" t="s">
         <v>36</v>
       </c>
@@ -10791,7 +10953,7 @@
         <v>38.270000000000003</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A528" s="17" t="s">
         <v>56</v>
       </c>
@@ -10805,7 +10967,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A529" s="15" t="s">
         <v>57</v>
       </c>
@@ -10819,7 +10981,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A530" s="17" t="s">
         <v>38</v>
       </c>
@@ -10833,7 +10995,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A531" s="15" t="s">
         <v>32</v>
       </c>
@@ -10847,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A532" s="17" t="s">
         <v>58</v>
       </c>
@@ -10861,7 +11023,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A533" s="15" t="s">
         <v>59</v>
       </c>
@@ -10875,7 +11037,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A534" s="17" t="s">
         <v>32</v>
       </c>
@@ -10889,7 +11051,7 @@
         <v>7.98</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A535" s="15" t="s">
         <v>34</v>
       </c>
@@ -10903,7 +11065,7 @@
         <v>256.93</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A536" s="17" t="s">
         <v>36</v>
       </c>
@@ -10917,7 +11079,7 @@
         <v>36.94</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A537" s="15" t="s">
         <v>56</v>
       </c>
@@ -10931,7 +11093,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A538" s="17" t="s">
         <v>57</v>
       </c>
@@ -10945,7 +11107,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A539" s="15" t="s">
         <v>38</v>
       </c>
@@ -10959,7 +11121,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A540" s="17" t="s">
         <v>32</v>
       </c>
@@ -10973,7 +11135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" s="15" t="s">
         <v>58</v>
       </c>
@@ -10987,7 +11149,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" s="17" t="s">
         <v>59</v>
       </c>
@@ -11001,7 +11163,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A543" s="15" t="s">
         <v>32</v>
       </c>
@@ -11015,7 +11177,7 @@
         <v>9.34</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A544" s="17" t="s">
         <v>34</v>
       </c>
@@ -11029,7 +11191,7 @@
         <v>269.77999999999997</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A545" s="15" t="s">
         <v>36</v>
       </c>
@@ -11043,7 +11205,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A546" s="17" t="s">
         <v>56</v>
       </c>
@@ -11057,7 +11219,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A547" s="15" t="s">
         <v>57</v>
       </c>
@@ -11071,7 +11233,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A548" s="17" t="s">
         <v>38</v>
       </c>
@@ -11085,7 +11247,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549" s="15" t="s">
         <v>32</v>
       </c>
@@ -11099,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A550" s="17" t="s">
         <v>58</v>
       </c>
@@ -11113,7 +11275,7 @@
         <v>1.27</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551" s="15" t="s">
         <v>59</v>
       </c>
@@ -11127,7 +11289,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552" s="17" t="s">
         <v>32</v>
       </c>
@@ -11141,7 +11303,7 @@
         <v>9.84</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A553" s="15" t="s">
         <v>34</v>
       </c>
@@ -11155,7 +11317,7 @@
         <v>280.32</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A554" s="17" t="s">
         <v>36</v>
       </c>
@@ -11169,7 +11331,7 @@
         <v>28.89</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A555" s="15" t="s">
         <v>56</v>
       </c>
@@ -11183,7 +11345,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A556" s="17" t="s">
         <v>57</v>
       </c>
@@ -11197,7 +11359,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A557" s="15" t="s">
         <v>38</v>
       </c>
@@ -11211,7 +11373,7 @@
         <v>16.61</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A558" s="17" t="s">
         <v>32</v>
       </c>
@@ -11225,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A559" s="15" t="s">
         <v>58</v>
       </c>
@@ -11239,7 +11401,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A560" s="17" t="s">
         <v>59</v>
       </c>
@@ -11253,7 +11415,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A561" s="15" t="s">
         <v>32</v>
       </c>
@@ -11267,7 +11429,7 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A562" s="17" t="s">
         <v>34</v>
       </c>
@@ -11281,7 +11443,7 @@
         <v>266.64999999999998</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A563" s="15" t="s">
         <v>36</v>
       </c>
@@ -11295,7 +11457,7 @@
         <v>26.13</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A564" s="17" t="s">
         <v>56</v>
       </c>
@@ -11309,7 +11471,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A565" s="15" t="s">
         <v>57</v>
       </c>
@@ -11323,7 +11485,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A566" s="17" t="s">
         <v>38</v>
       </c>
@@ -11337,7 +11499,7 @@
         <v>16.23</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567" s="15" t="s">
         <v>32</v>
       </c>
@@ -11351,7 +11513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" s="17" t="s">
         <v>58</v>
       </c>
@@ -11365,7 +11527,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" s="15" t="s">
         <v>59</v>
       </c>
@@ -11379,7 +11541,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A570" s="17" t="s">
         <v>32</v>
       </c>
@@ -11393,7 +11555,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A571" s="15" t="s">
         <v>34</v>
       </c>
@@ -11407,7 +11569,7 @@
         <v>263.95999999999998</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A572" s="17" t="s">
         <v>36</v>
       </c>
@@ -11421,7 +11583,7 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A573" s="15" t="s">
         <v>56</v>
       </c>
@@ -11435,7 +11597,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A574" s="17" t="s">
         <v>57</v>
       </c>
@@ -11449,7 +11611,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A575" s="15" t="s">
         <v>38</v>
       </c>
@@ -11463,7 +11625,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A576" s="17" t="s">
         <v>32</v>
       </c>
@@ -11477,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" s="15" t="s">
         <v>58</v>
       </c>
@@ -11491,7 +11653,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" s="17" t="s">
         <v>59</v>
       </c>
@@ -11505,7 +11667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A579" s="15" t="s">
         <v>32</v>
       </c>
@@ -11519,7 +11681,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A580" s="17" t="s">
         <v>34</v>
       </c>
@@ -11533,7 +11695,7 @@
         <v>253.51</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A581" s="15" t="s">
         <v>36</v>
       </c>
@@ -11547,7 +11709,7 @@
         <v>34.76</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A582" s="17" t="s">
         <v>56</v>
       </c>
@@ -11561,7 +11723,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A583" s="15" t="s">
         <v>57</v>
       </c>
@@ -11575,7 +11737,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A584" s="17" t="s">
         <v>38</v>
       </c>
@@ -11589,7 +11751,7 @@
         <v>16.71</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A585" s="15" t="s">
         <v>32</v>
       </c>
@@ -11603,7 +11765,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A586" s="17" t="s">
         <v>58</v>
       </c>
@@ -11617,7 +11779,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A587" s="15" t="s">
         <v>59</v>
       </c>
@@ -11631,7 +11793,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A588" s="17" t="s">
         <v>32</v>
       </c>
@@ -11645,7 +11807,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A589" s="15" t="s">
         <v>34</v>
       </c>
@@ -11659,7 +11821,7 @@
         <v>234.03</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A590" s="17" t="s">
         <v>36</v>
       </c>
@@ -11673,7 +11835,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A591" s="15" t="s">
         <v>56</v>
       </c>
@@ -11687,7 +11849,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A592" s="17" t="s">
         <v>57</v>
       </c>
@@ -11701,7 +11863,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A593" s="15" t="s">
         <v>38</v>
       </c>
@@ -11715,7 +11877,7 @@
         <v>16.559999999999999</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A594" s="17" t="s">
         <v>32</v>
       </c>
@@ -11729,7 +11891,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A595" s="15" t="s">
         <v>58</v>
       </c>
@@ -11743,7 +11905,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A596" s="17" t="s">
         <v>59</v>
       </c>
@@ -11757,7 +11919,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A597" s="15" t="s">
         <v>32</v>
       </c>
@@ -11771,7 +11933,7 @@
         <v>10.98</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A598" s="17" t="s">
         <v>34</v>
       </c>
@@ -11785,7 +11947,7 @@
         <v>221.42</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A599" s="15" t="s">
         <v>36</v>
       </c>
@@ -11799,7 +11961,7 @@
         <v>35.17</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A600" s="17" t="s">
         <v>56</v>
       </c>
@@ -11813,7 +11975,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A601" s="15" t="s">
         <v>57</v>
       </c>
@@ -11827,7 +11989,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A602" s="17" t="s">
         <v>38</v>
       </c>
@@ -11841,7 +12003,7 @@
         <v>15.55</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A603" s="15" t="s">
         <v>32</v>
       </c>
@@ -11855,7 +12017,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A604" s="17" t="s">
         <v>58</v>
       </c>
@@ -11869,7 +12031,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A605" s="15" t="s">
         <v>59</v>
       </c>
@@ -11883,7 +12045,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A606" s="17" t="s">
         <v>32</v>
       </c>
@@ -11897,7 +12059,7 @@
         <v>10.84</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A607" s="15" t="s">
         <v>34</v>
       </c>
@@ -11911,7 +12073,7 @@
         <v>166.58</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A608" s="17" t="s">
         <v>36</v>
       </c>
@@ -11925,7 +12087,7 @@
         <v>38.81</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A609" s="15" t="s">
         <v>56</v>
       </c>
@@ -11939,7 +12101,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A610" s="17" t="s">
         <v>57</v>
       </c>
@@ -11953,7 +12115,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A611" s="15" t="s">
         <v>38</v>
       </c>
@@ -11967,7 +12129,7 @@
         <v>14.74</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A612" s="17" t="s">
         <v>32</v>
       </c>
@@ -11981,7 +12143,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A613" s="15" t="s">
         <v>58</v>
       </c>
@@ -11995,7 +12157,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A614" s="17" t="s">
         <v>59</v>
       </c>
@@ -12009,7 +12171,7 @@
         <v>1.57</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A615" s="15" t="s">
         <v>32</v>
       </c>
@@ -12023,7 +12185,7 @@
         <v>11.01</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A616" s="17" t="s">
         <v>34</v>
       </c>
@@ -12037,7 +12199,7 @@
         <v>130.84</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A617" s="15" t="s">
         <v>36</v>
       </c>
@@ -12051,7 +12213,7 @@
         <v>40.96</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A618" s="17" t="s">
         <v>56</v>
       </c>
@@ -12065,7 +12227,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A619" s="15" t="s">
         <v>57</v>
       </c>
@@ -12079,7 +12241,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A620" s="17" t="s">
         <v>38</v>
       </c>
@@ -12093,7 +12255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A621" s="15" t="s">
         <v>32</v>
       </c>
@@ -12107,7 +12269,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622" s="17" t="s">
         <v>58</v>
       </c>
@@ -12121,7 +12283,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623" s="15" t="s">
         <v>59</v>
       </c>
@@ -12135,7 +12297,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A624" s="17" t="s">
         <v>32</v>
       </c>
@@ -12149,7 +12311,7 @@
         <v>10.62</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A625" s="15" t="s">
         <v>34</v>
       </c>
@@ -12163,7 +12325,7 @@
         <v>159.79</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A626" s="17" t="s">
         <v>36</v>
       </c>
@@ -12177,7 +12339,7 @@
         <v>38.94</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A627" s="15" t="s">
         <v>56</v>
       </c>
@@ -12191,7 +12353,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A628" s="17" t="s">
         <v>57</v>
       </c>
@@ -12205,7 +12367,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A629" s="15" t="s">
         <v>38</v>
       </c>
@@ -12219,7 +12381,7 @@
         <v>14.63</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A630" s="17" t="s">
         <v>32</v>
       </c>
@@ -12233,7 +12395,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A631" s="15" t="s">
         <v>58</v>
       </c>
@@ -12247,7 +12409,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A632" s="17" t="s">
         <v>59</v>
       </c>
@@ -12261,7 +12423,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A633" s="15" t="s">
         <v>32</v>
       </c>
@@ -12275,7 +12437,7 @@
         <v>10.41</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A634" s="17" t="s">
         <v>34</v>
       </c>
@@ -12289,7 +12451,7 @@
         <v>174.33</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A635" s="15" t="s">
         <v>36</v>
       </c>
@@ -12303,7 +12465,7 @@
         <v>34.090000000000003</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A636" s="17" t="s">
         <v>56</v>
       </c>
@@ -12317,7 +12479,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A637" s="15" t="s">
         <v>57</v>
       </c>
@@ -12331,7 +12493,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A638" s="17" t="s">
         <v>38</v>
       </c>
@@ -12345,7 +12507,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A639" s="15" t="s">
         <v>32</v>
       </c>
@@ -12359,7 +12521,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A640" s="17" t="s">
         <v>58</v>
       </c>
@@ -12373,7 +12535,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A641" s="15" t="s">
         <v>59</v>
       </c>
@@ -12387,7 +12549,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A642" s="17" t="s">
         <v>32</v>
       </c>
@@ -12401,7 +12563,7 @@
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A643" s="15" t="s">
         <v>34</v>
       </c>
@@ -12415,7 +12577,7 @@
         <v>131.27000000000001</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A644" s="17" t="s">
         <v>36</v>
       </c>
@@ -12429,7 +12591,7 @@
         <v>33.520000000000003</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A645" s="15" t="s">
         <v>56</v>
       </c>
@@ -12443,7 +12605,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A646" s="17" t="s">
         <v>57</v>
       </c>
@@ -12457,7 +12619,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A647" s="15" t="s">
         <v>38</v>
       </c>
@@ -12471,7 +12633,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A648" s="17" t="s">
         <v>32</v>
       </c>
@@ -12485,7 +12647,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A649" s="15" t="s">
         <v>58</v>
       </c>
@@ -12499,7 +12661,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A650" s="17" t="s">
         <v>59</v>
       </c>
@@ -12513,7 +12675,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A651" s="15" t="s">
         <v>60</v>
       </c>
@@ -12527,7 +12689,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A652" s="17" t="s">
         <v>61</v>
       </c>
@@ -12541,7 +12703,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A653" s="15" t="s">
         <v>60</v>
       </c>
@@ -12555,7 +12717,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A654" s="17" t="s">
         <v>61</v>
       </c>
@@ -12569,7 +12731,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A655" s="15" t="s">
         <v>60</v>
       </c>
@@ -12583,7 +12745,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A656" s="17" t="s">
         <v>61</v>
       </c>
@@ -12597,7 +12759,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A657" s="15" t="s">
         <v>60</v>
       </c>
@@ -12611,7 +12773,7 @@
         <v>52.4</v>
       </c>
     </row>
-    <row r="658" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A658" s="17" t="s">
         <v>61</v>
       </c>
@@ -12625,7 +12787,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A659" s="15" t="s">
         <v>60</v>
       </c>
@@ -12639,7 +12801,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A660" s="17" t="s">
         <v>61</v>
       </c>
@@ -12653,7 +12815,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A661" s="15" t="s">
         <v>60</v>
       </c>
@@ -12667,7 +12829,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A662" s="17" t="s">
         <v>61</v>
       </c>
@@ -12681,7 +12843,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="663" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A663" s="15" t="s">
         <v>60</v>
       </c>
@@ -12695,7 +12857,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A664" s="17" t="s">
         <v>61</v>
       </c>
@@ -12709,7 +12871,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="665" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A665" s="15" t="s">
         <v>60</v>
       </c>
@@ -12723,7 +12885,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="666" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A666" s="17" t="s">
         <v>61</v>
       </c>
@@ -12737,7 +12899,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A667" s="15" t="s">
         <v>60</v>
       </c>
@@ -12751,7 +12913,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="668" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A668" s="17" t="s">
         <v>61</v>
       </c>
@@ -12765,7 +12927,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="669" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A669" s="15" t="s">
         <v>60</v>
       </c>
@@ -12779,7 +12941,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A670" s="17" t="s">
         <v>61</v>
       </c>
@@ -12793,7 +12955,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="671" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A671" s="15" t="s">
         <v>60</v>
       </c>
@@ -12807,7 +12969,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A672" s="17" t="s">
         <v>61</v>
       </c>
@@ -12821,7 +12983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="673" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A673" s="15" t="s">
         <v>60</v>
       </c>
@@ -12835,7 +12997,7 @@
         <v>54.8</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A674" s="17" t="s">
         <v>61</v>
       </c>
@@ -12849,7 +13011,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A675" s="15" t="s">
         <v>60</v>
       </c>
@@ -12863,7 +13025,7 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A676" s="17" t="s">
         <v>61</v>
       </c>
@@ -12877,7 +13039,7 @@
         <v>46.3</v>
       </c>
     </row>
-    <row r="677" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A677" s="15" t="s">
         <v>60</v>
       </c>
@@ -12891,7 +13053,7 @@
         <v>71.400000000000006</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A678" s="17" t="s">
         <v>61</v>
       </c>
@@ -12905,7 +13067,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="679" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A679" s="15" t="s">
         <v>60</v>
       </c>
@@ -12919,7 +13081,7 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="680" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A680" s="17" t="s">
         <v>61</v>
       </c>
@@ -12933,7 +13095,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A681" s="15" t="s">
         <v>60</v>
       </c>
@@ -12947,7 +13109,7 @@
         <v>85.3</v>
       </c>
     </row>
-    <row r="682" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A682" s="17" t="s">
         <v>61</v>
       </c>
@@ -12961,7 +13123,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A683" s="15" t="s">
         <v>60</v>
       </c>
@@ -12975,7 +13137,7 @@
         <v>78.900000000000006</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A684" s="17" t="s">
         <v>61</v>
       </c>
@@ -12989,7 +13151,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="685" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A685" s="15" t="s">
         <v>60</v>
       </c>
@@ -13003,7 +13165,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A686" s="17" t="s">
         <v>61</v>
       </c>
@@ -13017,7 +13179,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A687" s="15" t="s">
         <v>60</v>
       </c>
@@ -13031,7 +13193,7 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A688" s="17" t="s">
         <v>61</v>
       </c>
@@ -13045,7 +13207,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A689" s="15" t="s">
         <v>60</v>
       </c>
@@ -13059,7 +13221,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="690" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A690" s="17" t="s">
         <v>61</v>
       </c>
@@ -13073,7 +13235,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A691" s="15" t="s">
         <v>60</v>
       </c>
@@ -13087,7 +13249,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="692" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A692" s="17" t="s">
         <v>61</v>
       </c>
@@ -13101,7 +13263,7 @@
         <v>47.9</v>
       </c>
     </row>
-    <row r="693" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A693" s="15" t="s">
         <v>60</v>
       </c>
@@ -13115,7 +13277,7 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A694" s="17" t="s">
         <v>61</v>
       </c>
@@ -13129,7 +13291,7 @@
         <v>51.7</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A695" s="15" t="s">
         <v>60</v>
       </c>
@@ -13143,7 +13305,7 @@
         <v>76.599999999999994</v>
       </c>
     </row>
-    <row r="696" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A696" s="17" t="s">
         <v>61</v>
       </c>
@@ -13157,7 +13319,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="697" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A697" s="15" t="s">
         <v>60</v>
       </c>
@@ -13171,7 +13333,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="698" spans="1:4" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A698" s="17" t="s">
         <v>61</v>
       </c>

--- a/VerveStacks_DEU/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_DEU/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_DEU\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA4871D1-4A5E-4628-88ED-BC838D871D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE0E52D0-DF39-4B04-BF37-05075D4A681C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2511,7 +2511,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D247AF3-9C2A-48F7-9FA1-F343635957B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C60F9BD-9831-5FC7-BC26-590F7C1A8AA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
